--- a/data/trans_orig/Q17H_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q17H_R-Estudios-trans_orig.xlsx
@@ -704,33 +704,33 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.569001479955114</v>
+        <v>5.631223752263005</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.023603567744249</v>
+        <v>5.015659993329342</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.322899200081515</v>
+        <v>1.334354910313183</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>3.247835308494102</v>
+        <v>3.219882496819408</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.740851192378538</v>
+        <v>2.765027362267347</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.184292384671542</v>
+        <v>1.18434244504367</v>
       </c>
       <c r="J5" s="5" t="inlineStr"/>
       <c r="K5" s="5" t="n">
-        <v>4.396554955176474</v>
+        <v>4.396352696081615</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.859381960205505</v>
+        <v>3.868347865681531</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.291962845458464</v>
+        <v>1.289085367649668</v>
       </c>
       <c r="N5" s="5" t="inlineStr"/>
     </row>
@@ -742,33 +742,33 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.950719888335842</v>
+        <v>7.045240303059827</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.722097173970647</v>
+        <v>6.633429002918761</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.662164282989027</v>
+        <v>1.672791305300019</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>4.308107850663417</v>
+        <v>4.304565340262466</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.963610604265982</v>
+        <v>4.595249619552984</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.459472315631939</v>
+        <v>1.456092945735116</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>5.289507777432752</v>
+        <v>5.291893314153055</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5.069133930327413</v>
+        <v>5.129212056421092</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1.503724893740306</v>
+        <v>1.498826814413242</v>
       </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
@@ -828,33 +828,33 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>9.45656294814223</v>
+        <v>9.39705581617099</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.878700804021202</v>
+        <v>7.924498432099414</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.908092903636264</v>
+        <v>1.922520370207988</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="n">
-        <v>5.523000960584346</v>
+        <v>5.536082894512742</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>4.626630110152565</v>
+        <v>4.573779581342801</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.762863583056797</v>
+        <v>1.748951350141322</v>
       </c>
       <c r="J8" s="5" t="inlineStr"/>
       <c r="K8" s="5" t="n">
-        <v>7.725364524913646</v>
+        <v>7.692638599580247</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6.49715299266404</v>
+        <v>6.483232409892508</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.877108354093481</v>
+        <v>1.874984500634403</v>
       </c>
       <c r="N8" s="5" t="inlineStr"/>
     </row>
@@ -866,33 +866,33 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.41037379677655</v>
+        <v>11.51842225848181</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.547719828097442</v>
+        <v>9.644465250633782</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.149398463391091</v>
+        <v>2.158779300238298</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>6.574066483285332</v>
+        <v>6.567596007175559</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>5.613846214919887</v>
+        <v>5.610099311817049</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>1.987546582862756</v>
+        <v>1.979434729276252</v>
       </c>
       <c r="J9" s="5" t="inlineStr"/>
       <c r="K9" s="5" t="n">
-        <v>8.880811376140501</v>
+        <v>8.927817509285513</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7.532437813301431</v>
+        <v>7.455676732557432</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2.044276991163476</v>
+        <v>2.040449240865509</v>
       </c>
       <c r="N9" s="5" t="inlineStr"/>
     </row>
@@ -952,33 +952,33 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.477493466793504</v>
+        <v>7.457580948255128</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.801854728832057</v>
+        <v>7.727513218151719</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.67907597701743</v>
+        <v>1.690105152461338</v>
       </c>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="n">
-        <v>4.825772706322578</v>
+        <v>4.837919694425329</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.696259572826496</v>
+        <v>4.707526554178204</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.841536073258251</v>
+        <v>1.838035864539735</v>
       </c>
       <c r="J11" s="5" t="inlineStr"/>
       <c r="K11" s="5" t="n">
-        <v>6.512036859570369</v>
+        <v>6.473188238023625</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6.546137643858898</v>
+        <v>6.459794861392863</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.81130888988472</v>
+        <v>1.822437139611856</v>
       </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
@@ -990,33 +990,33 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.807203273908684</v>
+        <v>9.810197604115583</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.41621598253408</v>
+        <v>11.85966662580183</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.146606663096472</v>
+        <v>2.149246367649098</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>6.842042420016342</v>
+        <v>6.88453153070177</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.901123479261415</v>
+        <v>6.760134590154594</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.27953263164046</v>
+        <v>2.288035430598025</v>
       </c>
       <c r="J12" s="5" t="inlineStr"/>
       <c r="K12" s="5" t="n">
-        <v>8.088244935833387</v>
+        <v>8.139281593569661</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8.924660527889177</v>
+        <v>8.912519465061717</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2.132187298309857</v>
+        <v>2.129953726841354</v>
       </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
@@ -1076,33 +1076,33 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.216570895027264</v>
+        <v>8.147129043260586</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.38729312061303</v>
+        <v>7.373942348580884</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.798180507437198</v>
+        <v>1.795295354879458</v>
       </c>
       <c r="F14" s="5" t="inlineStr"/>
       <c r="G14" s="5" t="n">
-        <v>4.736718484921505</v>
+        <v>4.718833175880889</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>4.097187897323804</v>
+        <v>4.106726890697082</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.658713290961273</v>
+        <v>1.658546688411266</v>
       </c>
       <c r="J14" s="5" t="inlineStr"/>
       <c r="K14" s="5" t="n">
-        <v>6.548130770793724</v>
+        <v>6.560459234169842</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5.766788786705805</v>
+        <v>5.825925985696683</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.758760382480811</v>
+        <v>1.757196513087031</v>
       </c>
       <c r="N14" s="5" t="inlineStr"/>
     </row>
@@ -1114,33 +1114,33 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.395953622857045</v>
+        <v>9.30262151815894</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.62113607098158</v>
+        <v>8.654072424410826</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.987621587608001</v>
+        <v>1.986272369681436</v>
       </c>
       <c r="F15" s="5" t="inlineStr"/>
       <c r="G15" s="5" t="n">
-        <v>5.451199558129949</v>
+        <v>5.483828618893726</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>4.982118918780937</v>
+        <v>5.061406218322639</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1.81848135985392</v>
+        <v>1.820361230273291</v>
       </c>
       <c r="J15" s="5" t="inlineStr"/>
       <c r="K15" s="5" t="n">
-        <v>7.277165550489153</v>
+        <v>7.244975590725445</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6.526511571808803</v>
+        <v>6.581738059376705</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1.882976686389946</v>
+        <v>1.882141502139434</v>
       </c>
       <c r="N15" s="5" t="inlineStr"/>
     </row>
